--- a/data/data_digitization/occurrence_data/1_raw_data/HJ-9-occ-entry.xlsx
+++ b/data/data_digitization/occurrence_data/1_raw_data/HJ-9-occ-entry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Desktop/LDP Internship/Harvey_Janszen_Legacy_Project/data/digitized_data/occurrence_data/raw_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Desktop/LDP Internship/Harvey_Janszen_Legacy_Project/data/data_digitization/occurrence_data/1_raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4F1705-2A20-504A-99F9-AEE96E1E6FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F6820F-A2E7-3740-AA8A-BB1021C0A3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15400" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3348,12 +3348,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E2B542-A597-DF4D-A726-D9C00BB4087B}">
-  <dimension ref="A1:AF71"/>
+  <dimension ref="A1:AF70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="138" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="AB55" sqref="AB55"/>
+      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3544,7 +3544,9 @@
       <c r="A3">
         <v>7</v>
       </c>
-      <c r="B3"/>
+      <c r="B3">
+        <v>2</v>
+      </c>
       <c r="C3" t="s">
         <v>40</v>
       </c>
@@ -3591,7 +3593,9 @@
       <c r="A4">
         <v>7</v>
       </c>
-      <c r="B4"/>
+      <c r="B4">
+        <v>3</v>
+      </c>
       <c r="C4" t="s">
         <v>42</v>
       </c>
@@ -3638,7 +3642,9 @@
       <c r="A5">
         <v>7</v>
       </c>
-      <c r="B5"/>
+      <c r="B5">
+        <v>4</v>
+      </c>
       <c r="C5" t="s">
         <v>49</v>
       </c>
@@ -3685,7 +3691,9 @@
       <c r="A6">
         <v>7</v>
       </c>
-      <c r="B6"/>
+      <c r="B6">
+        <v>5</v>
+      </c>
       <c r="C6" t="s">
         <v>48</v>
       </c>
@@ -3732,7 +3740,9 @@
       <c r="A7">
         <v>7</v>
       </c>
-      <c r="B7"/>
+      <c r="B7">
+        <v>6</v>
+      </c>
       <c r="C7" t="s">
         <v>47</v>
       </c>
@@ -3779,7 +3789,9 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8"/>
+      <c r="B8">
+        <v>7</v>
+      </c>
       <c r="C8" t="s">
         <v>54</v>
       </c>
@@ -3826,7 +3838,9 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9"/>
+      <c r="B9">
+        <v>8</v>
+      </c>
       <c r="C9" t="s">
         <v>55</v>
       </c>
@@ -3873,7 +3887,9 @@
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10"/>
+      <c r="B10">
+        <v>9</v>
+      </c>
       <c r="C10" t="s">
         <v>55</v>
       </c>
@@ -3920,7 +3936,9 @@
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11"/>
+      <c r="B11">
+        <v>10</v>
+      </c>
       <c r="C11" t="s">
         <v>57</v>
       </c>
@@ -3967,7 +3985,9 @@
       <c r="A12">
         <v>7</v>
       </c>
-      <c r="B12"/>
+      <c r="B12">
+        <v>11</v>
+      </c>
       <c r="C12" t="s">
         <v>59</v>
       </c>
@@ -4014,7 +4034,9 @@
       <c r="A13">
         <v>7</v>
       </c>
-      <c r="B13"/>
+      <c r="B13">
+        <v>12</v>
+      </c>
       <c r="C13" t="s">
         <v>61</v>
       </c>
@@ -4061,7 +4083,9 @@
       <c r="A14">
         <v>7</v>
       </c>
-      <c r="B14"/>
+      <c r="B14">
+        <v>13</v>
+      </c>
       <c r="C14" t="s">
         <v>63</v>
       </c>
@@ -4108,7 +4132,9 @@
       <c r="A15">
         <v>7</v>
       </c>
-      <c r="B15"/>
+      <c r="B15">
+        <v>14</v>
+      </c>
       <c r="C15" t="s">
         <v>65</v>
       </c>
@@ -4155,7 +4181,9 @@
       <c r="A16">
         <v>7</v>
       </c>
-      <c r="B16"/>
+      <c r="B16">
+        <v>15</v>
+      </c>
       <c r="C16" t="s">
         <v>67</v>
       </c>
@@ -4202,7 +4230,9 @@
       <c r="A17">
         <v>7</v>
       </c>
-      <c r="B17"/>
+      <c r="B17">
+        <v>16</v>
+      </c>
       <c r="C17" t="s">
         <v>69</v>
       </c>
@@ -4249,7 +4279,9 @@
       <c r="A18">
         <v>7</v>
       </c>
-      <c r="B18"/>
+      <c r="B18">
+        <v>17</v>
+      </c>
       <c r="C18" t="s">
         <v>70</v>
       </c>
@@ -4299,7 +4331,9 @@
       <c r="A19">
         <v>7</v>
       </c>
-      <c r="B19"/>
+      <c r="B19">
+        <v>18</v>
+      </c>
       <c r="C19" t="s">
         <v>71</v>
       </c>
@@ -4346,7 +4380,9 @@
       <c r="A20">
         <v>7</v>
       </c>
-      <c r="B20"/>
+      <c r="B20">
+        <v>19</v>
+      </c>
       <c r="C20" t="s">
         <v>72</v>
       </c>
@@ -4393,7 +4429,9 @@
       <c r="A21">
         <v>7</v>
       </c>
-      <c r="B21"/>
+      <c r="B21">
+        <v>20</v>
+      </c>
       <c r="C21" t="s">
         <v>73</v>
       </c>
@@ -4436,7 +4474,9 @@
       <c r="A22">
         <v>7</v>
       </c>
-      <c r="B22"/>
+      <c r="B22">
+        <v>21</v>
+      </c>
       <c r="C22" t="s">
         <v>75</v>
       </c>
@@ -4483,7 +4523,9 @@
       <c r="A23">
         <v>7</v>
       </c>
-      <c r="B23"/>
+      <c r="B23">
+        <v>22</v>
+      </c>
       <c r="C23" t="s">
         <v>83</v>
       </c>
@@ -4532,34 +4574,71 @@
       <c r="AE23"/>
       <c r="AF23"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="L24"/>
+    <row r="24" spans="1:32" ht="119" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" s="3">
+        <v>20000411</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="R24"/>
       <c r="T24"/>
+      <c r="Z24" s="3">
+        <v>60</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="AF24"/>
     </row>
     <row r="25" spans="1:32" ht="119" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25"/>
+      <c r="B25">
+        <v>2</v>
+      </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E25" t="s">
         <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G25" s="3">
         <v>20000411</v>
@@ -4582,10 +4661,10 @@
       <c r="R25"/>
       <c r="T25"/>
       <c r="Z25" s="3">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="AA25" s="3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AF25"/>
     </row>
@@ -4593,18 +4672,20 @@
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26"/>
+      <c r="B26">
+        <v>3</v>
+      </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E26" t="s">
         <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G26" s="3">
         <v>20000411</v>
@@ -4627,7 +4708,7 @@
       <c r="R26"/>
       <c r="T26"/>
       <c r="Z26" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AA26" s="3" t="s">
         <v>77</v>
@@ -4638,18 +4719,20 @@
       <c r="A27">
         <v>24</v>
       </c>
-      <c r="B27"/>
+      <c r="B27">
+        <v>4</v>
+      </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E27" t="s">
         <v>41</v>
       </c>
       <c r="F27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G27" s="3">
         <v>20000411</v>
@@ -4672,7 +4755,7 @@
       <c r="R27"/>
       <c r="T27"/>
       <c r="Z27" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA27" s="3" t="s">
         <v>77</v>
@@ -4683,18 +4766,20 @@
       <c r="A28">
         <v>24</v>
       </c>
-      <c r="B28"/>
+      <c r="B28">
+        <v>5</v>
+      </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E28" t="s">
         <v>41</v>
       </c>
       <c r="F28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G28" s="3">
         <v>20000411</v>
@@ -4717,7 +4802,7 @@
       <c r="R28"/>
       <c r="T28"/>
       <c r="Z28" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA28" s="3" t="s">
         <v>77</v>
@@ -4728,18 +4813,20 @@
       <c r="A29">
         <v>24</v>
       </c>
-      <c r="B29"/>
+      <c r="B29">
+        <v>6</v>
+      </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E29" t="s">
         <v>41</v>
       </c>
       <c r="F29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G29" s="3">
         <v>20000411</v>
@@ -4769,22 +4856,24 @@
       </c>
       <c r="AF29"/>
     </row>
-    <row r="30" spans="1:32" ht="119" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" ht="153" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>24</v>
       </c>
-      <c r="B30"/>
+      <c r="B30">
+        <v>7</v>
+      </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D30" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E30" t="s">
         <v>41</v>
       </c>
       <c r="F30" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G30" s="3">
         <v>20000411</v>
@@ -4802,34 +4891,32 @@
         <v>33</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="R30"/>
+        <v>93</v>
+      </c>
+      <c r="R30" t="s">
+        <v>94</v>
+      </c>
       <c r="T30"/>
-      <c r="Z30" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA30" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="AF30"/>
     </row>
     <row r="31" spans="1:32" ht="153" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>24</v>
       </c>
-      <c r="B31"/>
+      <c r="B31">
+        <v>8</v>
+      </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D31" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E31" t="s">
         <v>41</v>
       </c>
       <c r="F31" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G31" s="3">
         <v>20000411</v>
@@ -4853,24 +4940,29 @@
         <v>94</v>
       </c>
       <c r="T31"/>
+      <c r="Y31" s="3">
+        <v>1</v>
+      </c>
       <c r="AF31"/>
     </row>
     <row r="32" spans="1:32" ht="153" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>24</v>
       </c>
-      <c r="B32"/>
+      <c r="B32">
+        <v>9</v>
+      </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G32" s="3">
         <v>20000411</v>
@@ -4903,18 +4995,20 @@
       <c r="A33">
         <v>24</v>
       </c>
-      <c r="B33"/>
+      <c r="B33">
+        <v>10</v>
+      </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D33" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F33" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G33" s="3">
         <v>20000411</v>
@@ -4947,19 +5041,15 @@
       <c r="A34">
         <v>24</v>
       </c>
-      <c r="B34"/>
+      <c r="B34">
+        <v>11</v>
+      </c>
       <c r="C34" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" t="s">
-        <v>100</v>
-      </c>
-      <c r="E34" t="s">
-        <v>41</v>
-      </c>
-      <c r="F34" t="s">
-        <v>100</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
       <c r="G34" s="3">
         <v>20000411</v>
       </c>
@@ -4985,19 +5075,29 @@
       <c r="Y34" s="3">
         <v>1</v>
       </c>
-      <c r="AF34"/>
+      <c r="AF34" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="35" spans="1:32" ht="153" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>24</v>
       </c>
-      <c r="B35"/>
+      <c r="B35">
+        <v>12</v>
+      </c>
       <c r="C35" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
+        <v>103</v>
+      </c>
+      <c r="D35" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" t="s">
+        <v>104</v>
+      </c>
       <c r="G35" s="3">
         <v>20000411</v>
       </c>
@@ -5023,26 +5123,26 @@
       <c r="Y35" s="3">
         <v>1</v>
       </c>
-      <c r="AF35" t="s">
-        <v>102</v>
-      </c>
+      <c r="AF35"/>
     </row>
     <row r="36" spans="1:32" ht="153" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>24</v>
       </c>
-      <c r="B36"/>
+      <c r="B36">
+        <v>13</v>
+      </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D36" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F36" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G36" s="3">
         <v>20000411</v>
@@ -5067,7 +5167,7 @@
       </c>
       <c r="T36"/>
       <c r="Y36" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF36"/>
     </row>
@@ -5075,18 +5175,20 @@
       <c r="A37">
         <v>24</v>
       </c>
-      <c r="B37"/>
+      <c r="B37">
+        <v>14</v>
+      </c>
       <c r="C37" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="E37" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F37" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="G37" s="3">
         <v>20000411</v>
@@ -5110,8 +5212,11 @@
         <v>94</v>
       </c>
       <c r="T37"/>
-      <c r="Y37" s="3">
-        <v>0</v>
+      <c r="Z37" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA37" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="AF37"/>
     </row>
@@ -5119,18 +5224,20 @@
       <c r="A38">
         <v>24</v>
       </c>
-      <c r="B38"/>
+      <c r="B38">
+        <v>15</v>
+      </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D38" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E38" t="s">
         <v>41</v>
       </c>
       <c r="F38" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G38" s="3">
         <v>20000411</v>
@@ -5154,11 +5261,8 @@
         <v>94</v>
       </c>
       <c r="T38"/>
-      <c r="Z38" s="3">
-        <v>2</v>
-      </c>
-      <c r="AA38" s="3" t="s">
-        <v>77</v>
+      <c r="Y38" s="3">
+        <v>1</v>
       </c>
       <c r="AF38"/>
     </row>
@@ -5166,18 +5270,20 @@
       <c r="A39">
         <v>24</v>
       </c>
-      <c r="B39"/>
+      <c r="B39">
+        <v>16</v>
+      </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="D39" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="E39" t="s">
         <v>41</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="G39" s="3">
         <v>20000411</v>
@@ -5201,27 +5307,26 @@
         <v>94</v>
       </c>
       <c r="T39"/>
-      <c r="Y39" s="3">
-        <v>1</v>
-      </c>
       <c r="AF39"/>
     </row>
     <row r="40" spans="1:32" ht="153" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>24</v>
       </c>
-      <c r="B40"/>
+      <c r="B40">
+        <v>17</v>
+      </c>
       <c r="C40" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D40" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E40" t="s">
         <v>41</v>
       </c>
       <c r="F40" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G40" s="3">
         <v>20000411</v>
@@ -5251,18 +5356,20 @@
       <c r="A41">
         <v>24</v>
       </c>
-      <c r="B41"/>
+      <c r="B41">
+        <v>18</v>
+      </c>
       <c r="C41" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D41" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E41" t="s">
         <v>41</v>
       </c>
       <c r="F41" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G41" s="3">
         <v>20000411</v>
@@ -5286,24 +5393,29 @@
         <v>94</v>
       </c>
       <c r="T41"/>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
       <c r="AF41"/>
     </row>
     <row r="42" spans="1:32" ht="153" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>24</v>
       </c>
-      <c r="B42"/>
+      <c r="B42">
+        <v>19</v>
+      </c>
       <c r="C42" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E42" t="s">
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G42" s="3">
         <v>20000411</v>
@@ -5336,18 +5448,20 @@
       <c r="A43">
         <v>24</v>
       </c>
-      <c r="B43"/>
+      <c r="B43">
+        <v>20</v>
+      </c>
       <c r="C43" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E43" t="s">
         <v>41</v>
       </c>
       <c r="F43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G43" s="3">
         <v>20000411</v>
@@ -5372,7 +5486,7 @@
       </c>
       <c r="T43"/>
       <c r="Y43" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF43"/>
     </row>
@@ -5380,18 +5494,20 @@
       <c r="A44">
         <v>24</v>
       </c>
-      <c r="B44"/>
+      <c r="B44">
+        <v>21</v>
+      </c>
       <c r="C44" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D44" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E44" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F44" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G44" s="3">
         <v>20000411</v>
@@ -5416,7 +5532,7 @@
       </c>
       <c r="T44"/>
       <c r="Y44" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF44"/>
     </row>
@@ -5424,18 +5540,20 @@
       <c r="A45">
         <v>24</v>
       </c>
-      <c r="B45"/>
+      <c r="B45">
+        <v>22</v>
+      </c>
       <c r="C45" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D45" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E45" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F45" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G45" s="3">
         <v>20000411</v>
@@ -5468,18 +5586,20 @@
       <c r="A46">
         <v>24</v>
       </c>
-      <c r="B46"/>
+      <c r="B46">
+        <v>23</v>
+      </c>
       <c r="C46" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D46" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E46" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F46" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G46" s="3">
         <v>20000411</v>
@@ -5512,19 +5632,15 @@
       <c r="A47">
         <v>24</v>
       </c>
-      <c r="B47"/>
+      <c r="B47">
+        <v>24</v>
+      </c>
       <c r="C47" t="s">
-        <v>123</v>
-      </c>
-      <c r="D47" t="s">
-        <v>122</v>
-      </c>
-      <c r="E47" t="s">
-        <v>37</v>
-      </c>
-      <c r="F47" t="s">
-        <v>122</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
       <c r="G47" s="3">
         <v>20000411</v>
       </c>
@@ -5550,19 +5666,29 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-      <c r="AF47"/>
+      <c r="AF47" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="48" spans="1:32" ht="153" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>24</v>
       </c>
-      <c r="B48"/>
+      <c r="B48">
+        <v>25</v>
+      </c>
       <c r="C48" t="s">
-        <v>124</v>
-      </c>
-      <c r="D48"/>
-      <c r="E48"/>
-      <c r="F48"/>
+        <v>127</v>
+      </c>
+      <c r="D48" t="s">
+        <v>126</v>
+      </c>
+      <c r="E48" t="s">
+        <v>37</v>
+      </c>
+      <c r="F48" t="s">
+        <v>126</v>
+      </c>
       <c r="G48" s="3">
         <v>20000411</v>
       </c>
@@ -5588,26 +5714,26 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-      <c r="AF48" t="s">
-        <v>125</v>
-      </c>
+      <c r="AF48"/>
     </row>
     <row r="49" spans="1:32" ht="153" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>24</v>
       </c>
-      <c r="B49"/>
+      <c r="B49">
+        <v>26</v>
+      </c>
       <c r="C49" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="D49" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="E49" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F49" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="G49" s="3">
         <v>20000411</v>
@@ -5636,22 +5762,24 @@
       </c>
       <c r="AF49"/>
     </row>
-    <row r="50" spans="1:32" ht="153" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:32" ht="85" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>24</v>
       </c>
-      <c r="B50"/>
+      <c r="B50">
+        <v>27</v>
+      </c>
       <c r="C50" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D50" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E50" t="s">
         <v>41</v>
       </c>
       <c r="F50" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G50" s="3">
         <v>20000411</v>
@@ -5669,14 +5797,14 @@
         <v>33</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="R50" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="T50"/>
       <c r="Y50" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF50"/>
     </row>
@@ -5684,18 +5812,20 @@
       <c r="A51">
         <v>24</v>
       </c>
-      <c r="B51"/>
+      <c r="B51">
+        <v>28</v>
+      </c>
       <c r="C51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E51" t="s">
         <v>41</v>
       </c>
       <c r="F51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G51" s="3">
         <v>20000411</v>
@@ -5728,18 +5858,20 @@
       <c r="A52">
         <v>24</v>
       </c>
-      <c r="B52"/>
+      <c r="B52">
+        <v>29</v>
+      </c>
       <c r="C52" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="D52" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="E52" t="s">
         <v>41</v>
       </c>
       <c r="F52" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="G52" s="3">
         <v>20000411</v>
@@ -5763,8 +5895,11 @@
         <v>129</v>
       </c>
       <c r="T52"/>
-      <c r="Y52" s="3">
-        <v>1</v>
+      <c r="Z52" s="3">
+        <v>50</v>
+      </c>
+      <c r="AA52" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="AF52"/>
     </row>
@@ -5772,18 +5907,20 @@
       <c r="A53">
         <v>24</v>
       </c>
-      <c r="B53"/>
+      <c r="B53">
+        <v>30</v>
+      </c>
       <c r="C53" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="D53" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="E53" t="s">
         <v>41</v>
       </c>
       <c r="F53" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="G53" s="3">
         <v>20000411</v>
@@ -5808,7 +5945,7 @@
       </c>
       <c r="T53"/>
       <c r="Z53" s="3">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="AA53" s="3" t="s">
         <v>87</v>
@@ -5819,19 +5956,15 @@
       <c r="A54">
         <v>24</v>
       </c>
-      <c r="B54"/>
+      <c r="B54">
+        <v>31</v>
+      </c>
       <c r="C54" t="s">
-        <v>130</v>
-      </c>
-      <c r="D54" t="s">
-        <v>130</v>
-      </c>
-      <c r="E54" t="s">
-        <v>41</v>
-      </c>
-      <c r="F54" t="s">
-        <v>131</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
       <c r="G54" s="3">
         <v>20000411</v>
       </c>
@@ -5855,7 +5988,7 @@
       </c>
       <c r="T54"/>
       <c r="Z54" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AA54" s="3" t="s">
         <v>87</v>
@@ -5866,10 +5999,10 @@
       <c r="A55">
         <v>24</v>
       </c>
-      <c r="B55"/>
-      <c r="C55" t="s">
-        <v>132</v>
-      </c>
+      <c r="B55">
+        <v>32</v>
+      </c>
+      <c r="C55"/>
       <c r="D55"/>
       <c r="E55"/>
       <c r="F55"/>
@@ -5895,19 +6028,15 @@
         <v>129</v>
       </c>
       <c r="T55"/>
-      <c r="Z55" s="3">
-        <v>5</v>
-      </c>
-      <c r="AA55" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="AF55"/>
     </row>
     <row r="56" spans="1:32" ht="85" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>24</v>
       </c>
-      <c r="B56"/>
+      <c r="B56">
+        <v>33</v>
+      </c>
       <c r="C56"/>
       <c r="D56"/>
       <c r="E56"/>
@@ -5940,7 +6069,9 @@
       <c r="A57">
         <v>24</v>
       </c>
-      <c r="B57"/>
+      <c r="B57">
+        <v>34</v>
+      </c>
       <c r="C57"/>
       <c r="D57"/>
       <c r="E57"/>
@@ -5973,7 +6104,9 @@
       <c r="A58">
         <v>24</v>
       </c>
-      <c r="B58"/>
+      <c r="B58">
+        <v>35</v>
+      </c>
       <c r="C58"/>
       <c r="D58"/>
       <c r="E58"/>
@@ -6006,7 +6139,9 @@
       <c r="A59">
         <v>24</v>
       </c>
-      <c r="B59"/>
+      <c r="B59">
+        <v>36</v>
+      </c>
       <c r="C59"/>
       <c r="D59"/>
       <c r="E59"/>
@@ -6039,7 +6174,9 @@
       <c r="A60">
         <v>24</v>
       </c>
-      <c r="B60"/>
+      <c r="B60">
+        <v>37</v>
+      </c>
       <c r="C60"/>
       <c r="D60"/>
       <c r="E60"/>
@@ -6072,7 +6209,9 @@
       <c r="A61">
         <v>24</v>
       </c>
-      <c r="B61"/>
+      <c r="B61">
+        <v>38</v>
+      </c>
       <c r="C61"/>
       <c r="D61"/>
       <c r="E61"/>
@@ -6105,7 +6244,9 @@
       <c r="A62">
         <v>24</v>
       </c>
-      <c r="B62"/>
+      <c r="B62">
+        <v>39</v>
+      </c>
       <c r="C62"/>
       <c r="D62"/>
       <c r="E62"/>
@@ -6138,7 +6279,9 @@
       <c r="A63">
         <v>24</v>
       </c>
-      <c r="B63"/>
+      <c r="B63">
+        <v>40</v>
+      </c>
       <c r="C63"/>
       <c r="D63"/>
       <c r="E63"/>
@@ -6171,7 +6314,9 @@
       <c r="A64">
         <v>24</v>
       </c>
-      <c r="B64"/>
+      <c r="B64">
+        <v>41</v>
+      </c>
       <c r="C64"/>
       <c r="D64"/>
       <c r="E64"/>
@@ -6204,7 +6349,9 @@
       <c r="A65">
         <v>24</v>
       </c>
-      <c r="B65"/>
+      <c r="B65">
+        <v>42</v>
+      </c>
       <c r="C65"/>
       <c r="D65"/>
       <c r="E65"/>
@@ -6237,7 +6384,9 @@
       <c r="A66">
         <v>24</v>
       </c>
-      <c r="B66"/>
+      <c r="B66">
+        <v>43</v>
+      </c>
       <c r="C66"/>
       <c r="D66"/>
       <c r="E66"/>
@@ -6270,7 +6419,9 @@
       <c r="A67">
         <v>24</v>
       </c>
-      <c r="B67"/>
+      <c r="B67">
+        <v>44</v>
+      </c>
       <c r="C67"/>
       <c r="D67"/>
       <c r="E67"/>
@@ -6303,7 +6454,9 @@
       <c r="A68">
         <v>24</v>
       </c>
-      <c r="B68"/>
+      <c r="B68">
+        <v>45</v>
+      </c>
       <c r="C68"/>
       <c r="D68"/>
       <c r="E68"/>
@@ -6336,7 +6489,9 @@
       <c r="A69">
         <v>24</v>
       </c>
-      <c r="B69"/>
+      <c r="B69">
+        <v>46</v>
+      </c>
       <c r="C69"/>
       <c r="D69"/>
       <c r="E69"/>
@@ -6369,7 +6524,9 @@
       <c r="A70">
         <v>24</v>
       </c>
-      <c r="B70"/>
+      <c r="B70">
+        <v>47</v>
+      </c>
       <c r="C70"/>
       <c r="D70"/>
       <c r="E70"/>
@@ -6398,39 +6555,6 @@
       <c r="T70"/>
       <c r="AF70"/>
     </row>
-    <row r="71" spans="1:32" ht="85" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>24</v>
-      </c>
-      <c r="B71"/>
-      <c r="C71"/>
-      <c r="D71"/>
-      <c r="E71"/>
-      <c r="F71"/>
-      <c r="G71" s="3">
-        <v>20000411</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O71" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="R71" t="s">
-        <v>129</v>
-      </c>
-      <c r="T71"/>
-      <c r="AF71"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/data_digitization/occurrence_data/1_raw_data/HJ-9-occ-entry.xlsx
+++ b/data/data_digitization/occurrence_data/1_raw_data/HJ-9-occ-entry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emma/Desktop/LDP Internship/Harvey_Janszen_Legacy_Project/data/data_digitization/occurrence_data/1_raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F6820F-A2E7-3740-AA8A-BB1021C0A3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69737AFE-E708-FF4E-ABF6-E25BD7C5635C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15400" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15380" xr2:uid="{6CD260D0-3248-EC4C-A246-EE521030FA00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3351,9 +3351,9 @@
   <dimension ref="A1:AF70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
